--- a/리볼트데이 문서/플로우차트.xlsx
+++ b/리볼트데이 문서/플로우차트.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a6f263b7920f829/문서/GitHub/RevoltDay/리볼트데이 문서/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{325B8610-F625-4453-9FF6-9CD101CD297F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{79CE3DAF-9B58-4009-894E-964FF60F1A5E}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="6_{75DD2F0A-80FD-4B1A-BC4C-E8DEADD56E9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{232B128C-3726-44FE-8B6E-FBE1A1B0CE26}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="2" xr2:uid="{90B0788C-5E73-43C6-B106-8EA60934541C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="3" xr2:uid="{90B0788C-5E73-43C6-B106-8EA60934541C}"/>
   </bookViews>
   <sheets>
     <sheet name="메인 플로우 차트" sheetId="1" r:id="rId1"/>
     <sheet name="행동 플로우 차트" sheetId="2" r:id="rId2"/>
     <sheet name="상점 플로우 차트" sheetId="3" r:id="rId3"/>
+    <sheet name="이동 플로우 차트" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>메인 플로우 차트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +61,10 @@
   </si>
   <si>
     <t>Yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 플로우 차트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -146,11 +151,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -662,16 +667,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>430824</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34443</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>411775</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>104049</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>687267</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>5135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>668217</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>74741</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -686,7 +691,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7318132" y="11933366"/>
+          <a:off x="5508382" y="11735539"/>
           <a:ext cx="1358412" cy="707048"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -714,7 +719,15 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>보상</a:t>
+            <a:t>이슈</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>사건 보상</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1406,15 +1419,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>422033</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>84266</xdr:rowOff>
+      <xdr:colOff>451340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>402983</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>153871</xdr:rowOff>
+      <xdr:colOff>432290</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>168524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1429,8 +1442,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2488225" y="9008458"/>
-          <a:ext cx="1358412" cy="707048"/>
+          <a:off x="2517532" y="7792189"/>
+          <a:ext cx="1358412" cy="707047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1486,13 +1499,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>65209</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>1476</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>430824</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>175487</xdr:rowOff>
+      <xdr:rowOff>1475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>687267</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>146178</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1510,8 +1523,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="4197594" y="7225822"/>
-          <a:ext cx="3120538" cy="5061069"/>
+          <a:off x="4197594" y="7269783"/>
+          <a:ext cx="1310788" cy="4819280"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1540,15 +1553,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>402983</xdr:colOff>
+      <xdr:colOff>432290</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>1475</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>65209</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12828</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>27482</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1566,8 +1579,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="3846637" y="7225821"/>
-          <a:ext cx="350957" cy="2136161"/>
+          <a:off x="3875944" y="7269783"/>
+          <a:ext cx="321650" cy="875930"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1595,16 +1608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>441815</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72913</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>402984</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1475</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>65210</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>12828</xdr:rowOff>
+      <xdr:colOff>74734</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>98920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1616,14 +1629,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="6" idx="2"/>
-          <a:endCxn id="107" idx="3"/>
+          <a:stCxn id="6" idx="1"/>
+          <a:endCxn id="107" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2954036" y="8118423"/>
-          <a:ext cx="2136161" cy="350957"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3196738" y="6916259"/>
+          <a:ext cx="321650" cy="875930"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1771,10 +1784,10 @@
       <xdr:rowOff>184644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>421299</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34443</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677741</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>5135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1792,70 +1805,12 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6039216" y="9975244"/>
-          <a:ext cx="1337164" cy="2579079"/>
+          <a:off x="5255235" y="10803186"/>
+          <a:ext cx="1095376" cy="769329"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>30774</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>58255</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>411775</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>175486</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="160" name="연결선: 꺾임 159">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CD94DEC-89D3-48CA-A4AC-E3C3BD98D7AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="11" idx="3"/>
-          <a:endCxn id="12" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="6918082" y="7707563"/>
-          <a:ext cx="1758462" cy="4579327"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -13000"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -2050,8 +2005,21 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>이슈사건 대화</a:t>
+            <a:t>이슈</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>사건</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t> 연출</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2295,16 +2263,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>677742</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>191970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>191970</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>421300</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>34443</xdr:rowOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>5135</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2321,9 +2289,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000" flipH="1">
-          <a:off x="6848841" y="10784869"/>
-          <a:ext cx="1329838" cy="967156"/>
+        <a:xfrm rot="5400000">
+          <a:off x="6064860" y="10770217"/>
+          <a:ext cx="1088050" cy="842594"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -2844,7 +2812,203 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3571875" y="1981200"/>
+          <a:off x="3571875" y="2038350"/>
+          <a:ext cx="1355481" cy="704117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>캐릭터 이동</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>조사</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142142</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261D8B7E-2F60-4FCF-B0C3-9CBDC6819951}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5810250" y="695325"/>
+          <a:ext cx="1355481" cy="704117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>턴 시작</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>288681</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE5375B-2619-455D-BD5A-DF247214244D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="3171825"/>
+          <a:ext cx="1355481" cy="904875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>행동력이 부족하여 사용할 수 없습니다</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>.</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126756</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104042</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099E0E3E-2DAB-423F-B4B0-6DA6B07030D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="5686425"/>
           <a:ext cx="1355481" cy="704117"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2880,185 +3044,10 @@
           </a:r>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>조사</a:t>
+            <a:t>조사 </a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
         </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>307731</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142142</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="직사각형 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261D8B7E-2F60-4FCF-B0C3-9CBDC6819951}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5810250" y="695325"/>
-          <a:ext cx="1355481" cy="704117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>턴 시작</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>279156</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BE5375B-2619-455D-BD5A-DF247214244D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1666875" y="3228975"/>
-          <a:ext cx="1355481" cy="704117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>실행 불가</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>126756</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>104042</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="직사각형 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{099E0E3E-2DAB-423F-B4B0-6DA6B07030D5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3571875" y="5686425"/>
-          <a:ext cx="1355481" cy="704117"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
@@ -3315,7 +3304,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>대기</a:t>
+            <a:t>대기 버튼 클릭</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3582,6 +3571,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -3757,21 +3749,18 @@
           </a:avLst>
         </a:prstGeom>
         <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent5"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent5"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -4015,15 +4004,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>287215</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>28210</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:colOff>296741</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325316</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4036,16 +4025,18 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="6" idx="0"/>
-          <a:endCxn id="3" idx="1"/>
+          <a:endCxn id="11" idx="0"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000" flipH="1" flipV="1">
-          <a:off x="2510387" y="2167488"/>
-          <a:ext cx="895716" cy="1227259"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
+          <a:off x="3849566" y="523876"/>
+          <a:ext cx="1152525" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 119835"/>
+          </a:avLst>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="triangle"/>
@@ -4298,15 +4289,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>279156</xdr:colOff>
+      <xdr:colOff>288681</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>4763</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>609600</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>18684</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -4323,9 +4314,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3022356" y="3571350"/>
-          <a:ext cx="330444" cy="9684"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3031881" y="3624263"/>
+          <a:ext cx="320919" cy="4237"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4419,10 +4410,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>307731</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>213946</xdr:rowOff>
+      <xdr:rowOff>194896</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
@@ -4441,17 +4432,17 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="92" idx="3"/>
-          <a:endCxn id="5" idx="3"/>
+          <a:endCxn id="39" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7165731" y="1080721"/>
-          <a:ext cx="4114800" cy="7672388"/>
+          <a:off x="10172700" y="1061671"/>
+          <a:ext cx="1107831" cy="7691438"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -41667"/>
+            <a:gd name="adj1" fmla="val -93717"/>
           </a:avLst>
         </a:prstGeom>
         <a:ln>
@@ -5174,6 +5165,131 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="직사각형 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{490FDC7C-792C-4974-BCC3-253672C40635}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8439150" y="685800"/>
+          <a:ext cx="1733550" cy="751742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>매턴 시작 시 행동력이 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>최대값 만큼 충전됨</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>194896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>213946</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="직선 화살표 연결선 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71393D40-C318-4BBA-9DC8-F8B10D00ACBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="1"/>
+          <a:endCxn id="5" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7165731" y="1061671"/>
+          <a:ext cx="1273419" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7025,6 +7141,72 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>21981</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>189767</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="직사각형 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DFD47F-EC6D-4259-AAB7-581513F8B575}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="962025"/>
+          <a:ext cx="1355481" cy="751742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>시작</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7330,27 +7512,27 @@
   <dimension ref="B2:D5"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D4"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -7369,38 +7551,38 @@
   <dimension ref="B3:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:22" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:22" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7420,7 +7602,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7428,39 +7611,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F94A4A-321A-4F20-AEF5-C6D2B1A1BF09}">
   <dimension ref="B3:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S31" sqref="S31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -7473,4 +7656,42 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8891E2C2-C370-4D44-A7CC-D03E6906BD3A}">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/리볼트데이 문서/플로우차트.xlsx
+++ b/리볼트데이 문서/플로우차트.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1a6f263b7920f829/문서/GitHub/RevoltDay/리볼트데이 문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joow1\OneDrive\문서\GitHub\RevoltDay\리볼트데이 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="6_{75DD2F0A-80FD-4B1A-BC4C-E8DEADD56E9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{232B128C-3726-44FE-8B6E-FBE1A1B0CE26}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="6_{75DD2F0A-80FD-4B1A-BC4C-E8DEADD56E9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D5D2DF73-F804-493C-B01A-060E937E6517}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" activeTab="3" xr2:uid="{90B0788C-5E73-43C6-B106-8EA60934541C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{90B0788C-5E73-43C6-B106-8EA60934541C}"/>
   </bookViews>
   <sheets>
     <sheet name="메인 플로우 차트" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -156,6 +156,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2779,6 +2782,446 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>638735</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>163641</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>676754</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>166424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A946AD71-C0B9-4478-8864-0DCA4A753C77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11575676" y="2550494"/>
+          <a:ext cx="4139372" cy="2344812"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>52499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>187649</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>139394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C4A291-9D9A-47F4-B99B-E8439B73A92C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16147676" y="2439352"/>
+          <a:ext cx="4546738" cy="2641836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>459826</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>637472</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>144986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5209935E-3204-4A91-9AF6-A7D6F9AE0310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11396767" y="5513294"/>
+          <a:ext cx="4278999" cy="2341339"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>347383</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>203067</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>12195</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>84477</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="그림 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3FAE97-B2C9-4F15-8F6F-A9746AEB4B72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11284324" y="8125626"/>
+          <a:ext cx="4449724" cy="2436351"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>336177</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>176203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>589854</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>27881</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7CB3802-EC1D-4F4A-B70F-8AFA7BEAA89A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11273118" y="10866615"/>
+          <a:ext cx="4355030" cy="2406619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>4224</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>380210</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>195898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="그림 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8885981-5EAB-4FD2-9B25-2C8A0FF2E5E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11329147" y="13462489"/>
+          <a:ext cx="4089357" cy="2320791"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>319290</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>208653</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="그림 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D342A2D6-82B6-4727-B24C-8D308C1051A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11256231" y="15945970"/>
+          <a:ext cx="4252710" cy="2405007"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>10327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>419610</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="그림 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F8392D-1CFD-43DD-A1B0-1BB0D28ADC14}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16551088" y="10913651"/>
+          <a:ext cx="4375287" cy="2594906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>56541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>383008</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>159484</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBB53C6-B190-4CA8-8E1F-A8833ED123C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16528677" y="13727717"/>
+          <a:ext cx="4361096" cy="2444973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>605117</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>50589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>82129</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="그림 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB0A63B6-3FCC-4C1B-83B5-BBB8891003F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6073588" y="13508854"/>
+          <a:ext cx="4945482" cy="2783737"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5349,7 +5792,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>상점</a:t>
+            <a:t>상점 버튼 클릭</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7175,6 +7618,67 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4838700" y="962025"/>
+          <a:ext cx="1355481" cy="751742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>시작</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>669681</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94517</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7BBF4FB-9B4C-44C1-973F-3E2124BF608C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="2333625"/>
           <a:ext cx="1355481" cy="751742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7509,32 +8013,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{382D96CD-4E26-40DB-95FB-AC4EFA263379}">
-  <dimension ref="B2:D5"/>
+  <dimension ref="B2:L5"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="2:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:D4"/>
@@ -7551,7 +8062,7 @@
   <dimension ref="B3:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7612,7 +8123,7 @@
   <dimension ref="B3:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7662,8 +8173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8891E2C2-C370-4D44-A7CC-D03E6906BD3A}">
   <dimension ref="B2:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
